--- a/Useless/Statusbericht.xlsx
+++ b/Useless/Statusbericht.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\Die Breinz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6980" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Statusbericht</t>
   </si>
   <si>
-    <t>ClassDiagram fertiggestellt, Benutzerinterface für Admin erstellen</t>
+    <t>Prozent:</t>
+  </si>
+  <si>
+    <t>Arbeitsaufteilung:</t>
+  </si>
+  <si>
+    <t>Haracic:</t>
+  </si>
+  <si>
+    <t>Tomaschitz:</t>
+  </si>
+  <si>
+    <t>Wutti:</t>
+  </si>
+  <si>
+    <t>Gradl:</t>
+  </si>
+  <si>
+    <t>ERD; C# (WPF)</t>
+  </si>
+  <si>
+    <t>ERD; Java (Android)</t>
+  </si>
+  <si>
+    <t>ERD; SQL(CREATE TABLE); C# (WPF)</t>
+  </si>
+  <si>
+    <t>ERD Diagram ausgebessert; GUI Mockups</t>
+  </si>
+  <si>
+    <t>ClassDiagram fertiggestellt; Benutzerinterface für Admin erstellen</t>
+  </si>
+  <si>
+    <t>ERD erweitert; Mockups erweitern;  Create Table auf Aphrodite; Android Project created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -170,39 +210,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,7 +391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,138 +687,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2346ED8-24FF-4A7F-BB03-B5E5B9159710}">
-  <dimension ref="C1:G17"/>
+  <dimension ref="C1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="3:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="3:7" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="10">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6">
         <v>43007</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>43014</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="23">
+        <v>43021</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Useless/Statusbericht.xlsx
+++ b/Useless/Statusbericht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Statusbericht</t>
   </si>
   <si>
-    <t>Prozent:</t>
-  </si>
-  <si>
     <t>Arbeitsaufteilung:</t>
   </si>
   <si>
@@ -64,6 +61,15 @@
   </si>
   <si>
     <t>ERD erweitert; Mockups erweitern;  Create Table auf Aphrodite; Android Project created</t>
+  </si>
+  <si>
+    <t>Haracic</t>
+  </si>
+  <si>
+    <t>Tomaschitz</t>
+  </si>
+  <si>
+    <t>ERD ausgebessert laut Gandalf; C# und Android erste GUI's; Android Mockups</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,59 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -355,23 +309,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2346ED8-24FF-4A7F-BB03-B5E5B9159710}">
-  <dimension ref="C1:N17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="C8" sqref="C8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,207 +724,302 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>43007</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6">
-        <v>43007</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="10">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>43014</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="H4" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="I4" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="23">
+      <c r="L5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>43021</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.09</v>
+      </c>
       <c r="H6" s="15">
         <v>0.09</v>
       </c>
+      <c r="I6" s="15">
+        <v>0.09</v>
+      </c>
       <c r="K6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="19"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="22"/>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>43028</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
+  <mergeCells count="24">
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Useless/Statusbericht.xlsx
+++ b/Useless/Statusbericht.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" xr2:uid="{B03B6C46-416A-4F45-8077-1F4866F4B85B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Statusbericht</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>ERD ausgebessert laut Gandalf; C# und Android erste GUI's; Android Mockups</t>
+  </si>
+  <si>
+    <t>10% krank</t>
+  </si>
+  <si>
+    <t>Versuch Android Studio Problem zu lösen; Research bzgl. Google Maps in C#; Neue Android und C# features</t>
+  </si>
+  <si>
+    <t>Maps features in C#; Anzeigen von Meetings in Android</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,7 +726,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,15 +759,15 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>43007</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="5">
         <v>0.03</v>
       </c>
@@ -773,15 +785,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="30">
         <v>43014</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -797,18 +809,18 @@
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -816,18 +828,18 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>43021</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="22"/>
@@ -847,11 +859,11 @@
       <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
@@ -866,11 +878,11 @@
       <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -907,48 +919,72 @@
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A10" s="17">
+        <v>43035</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A12" s="17">
+        <v>43049</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -995,7 +1031,13 @@
       <c r="I17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:E13"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="L4:N4"/>
@@ -1020,6 +1062,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
